--- a/Website/results/topsis_result.xlsx
+++ b/Website/results/topsis_result.xlsx
@@ -497,10 +497,10 @@
         <v>12.59</v>
       </c>
       <c r="G2" t="n">
-        <v>0.482378821641869</v>
+        <v>0.6449277342651049</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>10.11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5487818347023433</v>
+        <v>0.570027098768171</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -553,10 +553,10 @@
         <v>13.23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4723536624422568</v>
+        <v>0.4366646613059845</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -581,10 +581,10 @@
         <v>12.55</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3868942958320131</v>
+        <v>0.619349022088328</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -609,10 +609,10 @@
         <v>16.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7107721174907268</v>
+        <v>0.4506016317137757</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -637,10 +637,10 @@
         <v>14.91</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5588439642968009</v>
+        <v>0.7298434802403665</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -665,10 +665,10 @@
         <v>13.83</v>
       </c>
       <c r="G8" t="n">
-        <v>0.322811776236809</v>
+        <v>0.5258847707032039</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -693,10 +693,10 @@
         <v>10.55</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6889150501079628</v>
+        <v>0.2255572721544224</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
